--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1590.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1590.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.331343409708632</v>
+        <v>0.4029636681079865</v>
       </c>
       <c r="B1">
-        <v>3.296860105296695</v>
+        <v>0.660445511341095</v>
       </c>
       <c r="C1">
-        <v>5.496620625952038</v>
+        <v>2.069004058837891</v>
       </c>
       <c r="D1">
-        <v>1.665043399670737</v>
+        <v>4.81011438369751</v>
       </c>
       <c r="E1">
-        <v>0.9140722142643111</v>
+        <v>2.126118183135986</v>
       </c>
     </row>
   </sheetData>
